--- a/data/trans_dic/P19C02-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,29; 40,04</t>
+          <t>30,23; 39,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,68; 46,43</t>
+          <t>36,26; 46,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,13; 55,15</t>
+          <t>45,07; 55,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,61; 59,63</t>
+          <t>50,5; 59,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,26; 47,92</t>
+          <t>36,63; 47,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,23; 46,17</t>
+          <t>34,17; 46,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,85; 50,28</t>
+          <t>38,41; 49,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,68; 59,67</t>
+          <t>51,34; 59,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,54; 42,37</t>
+          <t>34,3; 42,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,27; 45,32</t>
+          <t>36,51; 45,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,86; 51,68</t>
+          <t>43,35; 51,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,21; 58,39</t>
+          <t>52,45; 58,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,48; 45,15</t>
+          <t>33,46; 44,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,46; 46,4</t>
+          <t>35,63; 46,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,85; 46,16</t>
+          <t>34,77; 46,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,66; 60,18</t>
+          <t>50,35; 60,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,4; 45,32</t>
+          <t>34,68; 44,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,59; 46,67</t>
+          <t>34,67; 47,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,41; 52,69</t>
+          <t>41,21; 52,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,97; 63,59</t>
+          <t>54,8; 63,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,94; 43,22</t>
+          <t>35,37; 42,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,57; 44,41</t>
+          <t>36,6; 44,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,06; 47,89</t>
+          <t>40,13; 48,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,05; 60,35</t>
+          <t>53,8; 60,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,52; 35,2</t>
+          <t>26,03; 35,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,75; 34,87</t>
+          <t>26,92; 34,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,27; 36,18</t>
+          <t>26,91; 36,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,19; 49,23</t>
+          <t>10,8; 49,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,42; 43,37</t>
+          <t>27,27; 42,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,25; 38,31</t>
+          <t>26,31; 38,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,4; 45,98</t>
+          <t>29,62; 45,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,02; 62,93</t>
+          <t>50,17; 62,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,77; 35,58</t>
+          <t>28,01; 35,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,71; 34,64</t>
+          <t>27,95; 34,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 37,34</t>
+          <t>29,0; 37,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 51,44</t>
+          <t>15,65; 51,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,07; 26,84</t>
+          <t>20,99; 26,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,21</t>
+          <t>21,54; 27,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,0; 33,02</t>
+          <t>26,9; 32,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,46; 44,71</t>
+          <t>38,02; 44,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,0; 32,76</t>
+          <t>25,18; 32,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,13; 39,6</t>
+          <t>32,01; 39,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,0; 42,49</t>
+          <t>34,85; 42,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,74; 77,77</t>
+          <t>47,56; 78,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,53; 28,23</t>
+          <t>23,75; 28,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,7; 31,43</t>
+          <t>26,96; 31,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,42; 36,15</t>
+          <t>31,54; 36,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>43,73; 66,59</t>
+          <t>43,17; 62,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,03; 23,08</t>
+          <t>13,18; 23,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,92; 23,38</t>
+          <t>16,25; 24,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,27; 36,41</t>
+          <t>27,09; 36,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,61; 43,7</t>
+          <t>32,94; 43,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,56; 27,83</t>
+          <t>20,0; 28,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,79; 29,91</t>
+          <t>22,82; 29,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,19; 37,22</t>
+          <t>29,2; 37,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,46; 41,49</t>
+          <t>26,11; 41,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 25,03</t>
+          <t>18,54; 25,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,25</t>
+          <t>21,22; 26,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,57; 35,85</t>
+          <t>29,41; 35,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,8; 40,66</t>
+          <t>29,66; 40,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,07; 37,06</t>
+          <t>25,01; 36,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,64; 33,33</t>
+          <t>21,49; 33,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,34; 38,28</t>
+          <t>25,25; 36,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>42,92; 65,45</t>
+          <t>43,9; 65,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,15; 26,49</t>
+          <t>20,98; 26,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,58; 28,33</t>
+          <t>22,69; 28,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,61; 35,4</t>
+          <t>28,54; 34,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,33; 46,11</t>
+          <t>39,14; 46,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,62; 27,6</t>
+          <t>22,54; 27,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,17; 28,39</t>
+          <t>22,99; 28,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,61; 34,42</t>
+          <t>29,25; 34,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,08; 49,77</t>
+          <t>41,85; 49,34</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,73; 30,5</t>
+          <t>26,75; 30,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,79; 31,31</t>
+          <t>27,87; 31,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,89; 36,74</t>
+          <t>32,97; 36,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,47; 47,58</t>
+          <t>32,46; 47,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,42; 30,8</t>
+          <t>27,65; 30,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,46; 32,89</t>
+          <t>29,52; 32,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,4; 39,06</t>
+          <t>35,31; 38,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,95; 59,37</t>
+          <t>45,97; 60,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,62; 30,13</t>
+          <t>27,66; 30,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,2; 31,72</t>
+          <t>29,23; 31,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34,72; 37,29</t>
+          <t>34,9; 37,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>42,03; 51,56</t>
+          <t>42,64; 51,24</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una limpieza de boca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>135899</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>162949</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>193835</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>276367</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>112796</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>119023</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>140319</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>245602</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>248695</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>281973</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>334153</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>521969</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>116761; 154445</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>142959; 184769</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>174706; 215235</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>252100; 299250</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>98265; 128366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100431; 136554</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>121295; 157140</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>226369; 262233</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>224494; 275039</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>251257; 309786</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>304904; 359616</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>493102; 550899</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>116611</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>157821</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>127660</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>247718</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>131540</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>126721</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>157560</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>224004</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>248152</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>284542</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>285219</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>471721</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>100461; 133391</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>136723; 178883</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>110106; 148068</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>225801; 269342</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>115665; 149662</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>108705; 147413</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>137459; 175915</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>206919; 239096</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>224147; 271807</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>255199; 310978</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>260910; 314472</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>444409; 500455</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>132018</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>164782</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>127743</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>199977</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>48508</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>77277</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52538</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>93425</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>180526</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>242059</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>180282</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>293402</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>111991; 151234</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>144147; 186125</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>109048; 147934</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>71336; 326668</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38192; 59666</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>63595; 92103</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41300; 63788</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>82766; 102755</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>159758; 204419</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>217206; 267454</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>157954; 202815</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>129224; 428259</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>208601</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>239038</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>263839</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>409467</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>172152</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>248478</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>264692</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>570342</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>380753</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>487516</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>528531</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>979809</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>182942; 234626</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>209078; 265940</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>236605; 289993</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>379144; 443245</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>149645; 194577</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>223753; 276008</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>238387; 291005</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>456008; 747930</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>348159; 414957</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>450201; 525120</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>493081; 569552</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>844358; 1224860</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43787</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>78590</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>135680</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>167231</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>108261</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>175120</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>184505</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>294894</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>152049</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>253711</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>320185</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>462125</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>32684; 57308</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>65530; 97030</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>115184; 155597</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>144566; 189708</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>91196; 129091</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>153053; 200702</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>162779; 208569</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>212507; 339758</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>130544; 178046</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>227879; 282357</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>289033; 347256</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>371586; 509041</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>65527</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>59727</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>75430</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>127589</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>223629</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>234413</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>263274</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>317768</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>289156</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>294141</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>338704</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>445357</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>53089; 78291</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>47541; 73510</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>60999; 88270</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>102369; 152480</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>198205; 247896</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>210011; 264953</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>235516; 287913</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>291168; 343862</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>260778; 321013</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>263561; 326121</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>312033; 370303</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>408952; 482149</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2461</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3899</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>702443</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>862907</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>924188</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1428348</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>796886</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>981033</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1062888</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1746034</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1499329</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1843941</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1987075</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3174382</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>654871; 745949</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>810786; 914431</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>875585; 971381</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1063843; 1561041</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>756653; 843521</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>928105; 1030444</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1008435; 1109481</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1609057; 2116298</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1434256; 1564606</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1769258; 1921187</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1923295; 2061676</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2889766; 3473206</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C02-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
